--- a/temp_excel_files/Categories.xlsx
+++ b/temp_excel_files/Categories.xlsx
@@ -432,6 +432,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">

--- a/temp_excel_files/Categories.xlsx
+++ b/temp_excel_files/Categories.xlsx
@@ -432,9 +432,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="" customWidth="1" min="1" max="1"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
